--- a/软件信息记录.xlsx
+++ b/软件信息记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="241">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -973,6 +973,18 @@
   </si>
   <si>
     <t>Beyond Compare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeybMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘映射工具仅修改注册表，不驻留内存。通过键盘映射工具，你可以将键盘上一些不常用的键定义为其它功能或者将其禁用，如将 ScrollLock 定义为静音、Wake Up 定义为减小音量、Sleep 定义为增大音量等等。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1412,11 +1424,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2789,6 +2801,19 @@
       </c>
       <c r="D64" s="1" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C65" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="C66" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
